--- a/data/DB.xlsx
+++ b/data/DB.xlsx
@@ -1,30 +1,41 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20400"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\iptimeCloud\KRRI_metro_energy\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Regrowthsolutio\리그로스 솔루션 업무\##연구용역\연구_09_철기연_3차원 공간정보 기반 철도역사 유형별 평가모델 구축_3차년도\05_신재생수정\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9958057C-F68C-408B-95A2-6E94F446DFF5}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA0B1B-169A-421D-8419-E4A34376BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="3660" windowWidth="29040" windowHeight="15720" activeTab="6" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
+    <workbookView minimized="1" xWindow="38295" yWindow="8760" windowWidth="23310" windowHeight="10035" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
   </bookViews>
   <sheets>
     <sheet name="01_sun" sheetId="1" r:id="rId1"/>
     <sheet name="02_sun2" sheetId="5" r:id="rId2"/>
-    <sheet name="03_clearsky" sheetId="7" r:id="rId3"/>
-    <sheet name="04_renewable" sheetId="8" r:id="rId4"/>
-    <sheet name="05_zero" sheetId="9" r:id="rId5"/>
-    <sheet name="Sheet7" sheetId="10" r:id="rId6"/>
-    <sheet name="06_price" sheetId="11" r:id="rId7"/>
+    <sheet name="06_price" sheetId="11" r:id="rId3"/>
+    <sheet name="03_clearsky" sheetId="7" r:id="rId4"/>
+    <sheet name="04_renewable" sheetId="8" r:id="rId5"/>
+    <sheet name="05_zero" sheetId="9" r:id="rId6"/>
+    <sheet name="Sheet7" sheetId="10" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
+        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -227,7 +238,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="6">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -270,8 +281,15 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -281,6 +299,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFD9D9D9"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -359,21 +383,23 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="3" applyAlignment="1"/>
     <xf numFmtId="3" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="3" fontId="5" fillId="0" borderId="2" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -694,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11543455-1519-4BF0-BDE4-65314FA59D08}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="U9" sqref="U9"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -758,686 +784,686 @@
       <c r="S1" s="1"/>
     </row>
     <row r="2" spans="1:19">
-      <c r="A2" s="1">
-        <v>280.45</v>
-      </c>
-      <c r="B2" s="1">
-        <v>242.61</v>
-      </c>
-      <c r="C2" s="1">
-        <v>263.52</v>
-      </c>
-      <c r="D2" s="1">
-        <v>219.44</v>
-      </c>
-      <c r="E2" s="1">
-        <v>246.92</v>
-      </c>
-      <c r="F2" s="1">
-        <v>249.23</v>
-      </c>
-      <c r="G2" s="1">
-        <v>235.6</v>
-      </c>
-      <c r="H2" s="1">
-        <v>254.18</v>
-      </c>
-      <c r="I2" s="1">
-        <v>253.63</v>
-      </c>
-      <c r="J2" s="1">
-        <v>257.5</v>
-      </c>
-      <c r="K2" s="1">
-        <v>256.95</v>
-      </c>
-      <c r="L2" s="1">
-        <v>277.16000000000003</v>
-      </c>
-      <c r="M2" s="1">
-        <v>260.61</v>
-      </c>
-      <c r="N2" s="1">
-        <v>233.61</v>
-      </c>
-      <c r="O2" s="1">
-        <v>259.39999999999998</v>
-      </c>
-      <c r="P2" s="1">
-        <v>280.22000000000003</v>
-      </c>
-      <c r="Q2" s="1">
-        <v>255.97</v>
-      </c>
-      <c r="R2" s="1">
-        <v>132.58000000000001</v>
+      <c r="A2" s="15">
+        <v>94.141666674198007</v>
+      </c>
+      <c r="B2" s="15">
+        <v>78.063888895133999</v>
+      </c>
+      <c r="C2" s="15">
+        <v>87.905555562587992</v>
+      </c>
+      <c r="D2" s="15">
+        <v>83.805555562259997</v>
+      </c>
+      <c r="E2" s="15">
+        <v>85.044444451248012</v>
+      </c>
+      <c r="F2">
+        <v>84.091666673394016</v>
+      </c>
+      <c r="G2">
+        <v>84.097222228950002</v>
+      </c>
+      <c r="H2">
+        <v>85.755555562416006</v>
+      </c>
+      <c r="I2">
+        <v>84.288888895631999</v>
+      </c>
+      <c r="J2">
+        <v>88.419444451518004</v>
+      </c>
+      <c r="K2">
+        <v>92.016666674028002</v>
+      </c>
+      <c r="L2">
+        <v>92.602777785186007</v>
+      </c>
+      <c r="M2">
+        <v>97.319444452230016</v>
+      </c>
+      <c r="N2">
+        <v>82.805555562180004</v>
+      </c>
+      <c r="O2">
+        <v>90.975000007277998</v>
+      </c>
+      <c r="P2">
+        <v>102.5000000082</v>
+      </c>
+      <c r="Q2">
+        <v>87.316666673651994</v>
+      </c>
+      <c r="R2">
+        <v>70.252777783398002</v>
       </c>
       <c r="S2" s="1"/>
     </row>
     <row r="3" spans="1:19">
-      <c r="A3" s="1">
-        <v>333.92</v>
-      </c>
-      <c r="B3" s="1">
-        <v>302</v>
-      </c>
-      <c r="C3" s="1">
-        <v>310</v>
-      </c>
-      <c r="D3" s="1">
-        <v>280.56</v>
-      </c>
-      <c r="E3" s="1">
-        <v>313.75</v>
-      </c>
-      <c r="F3" s="1">
-        <v>304.45999999999998</v>
-      </c>
-      <c r="G3" s="1">
-        <v>286.17</v>
-      </c>
-      <c r="H3" s="1">
-        <v>315.11</v>
-      </c>
-      <c r="I3" s="1">
-        <v>312.32</v>
-      </c>
-      <c r="J3" s="1">
-        <v>323.82</v>
-      </c>
-      <c r="K3" s="1">
-        <v>313.33999999999997</v>
-      </c>
-      <c r="L3" s="1">
-        <v>333.66</v>
-      </c>
-      <c r="M3" s="1">
-        <v>319.05</v>
-      </c>
-      <c r="N3" s="1">
-        <v>289.20999999999998</v>
-      </c>
-      <c r="O3" s="1">
-        <v>326.58</v>
-      </c>
-      <c r="P3" s="1">
-        <v>327.01</v>
-      </c>
-      <c r="Q3" s="1">
-        <v>327.14999999999998</v>
-      </c>
-      <c r="R3" s="1">
-        <v>189.28</v>
+      <c r="A3">
+        <v>115.85833334260199</v>
+      </c>
+      <c r="B3">
+        <v>99.433333341288005</v>
+      </c>
+      <c r="C3">
+        <v>113.28333334239601</v>
+      </c>
+      <c r="D3">
+        <v>104.45833334169001</v>
+      </c>
+      <c r="E3">
+        <v>103.11111111936</v>
+      </c>
+      <c r="F3">
+        <v>104.46944445280199</v>
+      </c>
+      <c r="G3">
+        <v>102.675000008214</v>
+      </c>
+      <c r="H3">
+        <v>100.33888889691602</v>
+      </c>
+      <c r="I3">
+        <v>107.02500000856202</v>
+      </c>
+      <c r="J3">
+        <v>106.800000008544</v>
+      </c>
+      <c r="K3">
+        <v>113.15277778683001</v>
+      </c>
+      <c r="L3">
+        <v>110.72777778663601</v>
+      </c>
+      <c r="M3">
+        <v>115.80555556482</v>
+      </c>
+      <c r="N3">
+        <v>103.21944445270199</v>
+      </c>
+      <c r="O3">
+        <v>109.94166667546202</v>
+      </c>
+      <c r="P3">
+        <v>124.113888898818</v>
+      </c>
+      <c r="Q3">
+        <v>101.67500000813399</v>
+      </c>
+      <c r="R3">
+        <v>93.27222222968399</v>
       </c>
       <c r="S3" s="1"/>
     </row>
     <row r="4" spans="1:19">
-      <c r="A4" s="1">
-        <v>431.7</v>
-      </c>
-      <c r="B4" s="1">
-        <v>419.37</v>
-      </c>
-      <c r="C4" s="1">
-        <v>409.23</v>
-      </c>
-      <c r="D4" s="1">
-        <v>385.41</v>
-      </c>
-      <c r="E4" s="1">
-        <v>434.9</v>
-      </c>
-      <c r="F4" s="1">
-        <v>416.55</v>
-      </c>
-      <c r="G4" s="1">
-        <v>395.31</v>
-      </c>
-      <c r="H4" s="1">
-        <v>434.72</v>
-      </c>
-      <c r="I4" s="1">
-        <v>419.11</v>
-      </c>
-      <c r="J4" s="1">
-        <v>438.04</v>
-      </c>
-      <c r="K4" s="1">
-        <v>412.32</v>
-      </c>
-      <c r="L4" s="1">
-        <v>431.38</v>
-      </c>
-      <c r="M4" s="1">
-        <v>426.43</v>
-      </c>
-      <c r="N4" s="1">
-        <v>402.81</v>
-      </c>
-      <c r="O4" s="1">
-        <v>442.65</v>
-      </c>
-      <c r="P4" s="1">
-        <v>419.1</v>
-      </c>
-      <c r="Q4" s="1">
-        <v>449.56</v>
-      </c>
-      <c r="R4" s="1">
-        <v>299.55</v>
+      <c r="A4">
+        <v>132.10833334390199</v>
+      </c>
+      <c r="B4">
+        <v>113.96944445356201</v>
+      </c>
+      <c r="C4">
+        <v>121.21944445414201</v>
+      </c>
+      <c r="D4">
+        <v>118.16666667612</v>
+      </c>
+      <c r="E4">
+        <v>118.350000009468</v>
+      </c>
+      <c r="F4">
+        <v>115.56944445369001</v>
+      </c>
+      <c r="G4">
+        <v>114.43888889804401</v>
+      </c>
+      <c r="H4">
+        <v>117.50833334273401</v>
+      </c>
+      <c r="I4">
+        <v>116.605555564884</v>
+      </c>
+      <c r="J4">
+        <v>116.488888898208</v>
+      </c>
+      <c r="K4">
+        <v>122.294444454228</v>
+      </c>
+      <c r="L4">
+        <v>123.75555556545601</v>
+      </c>
+      <c r="M4">
+        <v>133.23888889954802</v>
+      </c>
+      <c r="N4">
+        <v>112.79166667569001</v>
+      </c>
+      <c r="O4">
+        <v>120.61111112076</v>
+      </c>
+      <c r="P4">
+        <v>133.05555556620001</v>
+      </c>
+      <c r="Q4">
+        <v>124.32500000994601</v>
+      </c>
+      <c r="R4">
+        <v>126.497222232342</v>
       </c>
       <c r="S4" s="1"/>
     </row>
     <row r="5" spans="1:19">
-      <c r="A5" s="1">
-        <v>510.07</v>
-      </c>
-      <c r="B5" s="1">
-        <v>499.41</v>
-      </c>
-      <c r="C5" s="1">
-        <v>497.38</v>
-      </c>
-      <c r="D5" s="1">
-        <v>469.51</v>
-      </c>
-      <c r="E5" s="1">
-        <v>510.37</v>
-      </c>
-      <c r="F5" s="1">
-        <v>504.75</v>
-      </c>
-      <c r="G5" s="1">
-        <v>475.54</v>
-      </c>
-      <c r="H5" s="1">
-        <v>521.49</v>
-      </c>
-      <c r="I5" s="1">
-        <v>505.45</v>
-      </c>
-      <c r="J5" s="1">
-        <v>530.97</v>
-      </c>
-      <c r="K5" s="1">
-        <v>482.13</v>
-      </c>
-      <c r="L5" s="1">
-        <v>524.36</v>
-      </c>
-      <c r="M5" s="1">
-        <v>510.23</v>
-      </c>
-      <c r="N5" s="1">
-        <v>491.53</v>
-      </c>
-      <c r="O5" s="1">
-        <v>529.35</v>
-      </c>
-      <c r="P5" s="1">
-        <v>509.03</v>
-      </c>
-      <c r="Q5" s="1">
-        <v>545.79999999999995</v>
-      </c>
-      <c r="R5" s="1">
-        <v>347.84</v>
+      <c r="A5">
+        <v>175.15555556956798</v>
+      </c>
+      <c r="B5">
+        <v>166.00833334661399</v>
+      </c>
+      <c r="C5">
+        <v>168.94166668018201</v>
+      </c>
+      <c r="D5">
+        <v>170.90000001367201</v>
+      </c>
+      <c r="E5">
+        <v>171.29444445814801</v>
+      </c>
+      <c r="F5">
+        <v>166.88888890223998</v>
+      </c>
+      <c r="G5">
+        <v>164.797222235406</v>
+      </c>
+      <c r="H5">
+        <v>172.38055556934603</v>
+      </c>
+      <c r="I5">
+        <v>174.94722223621798</v>
+      </c>
+      <c r="J5">
+        <v>170.77222223588399</v>
+      </c>
+      <c r="K5">
+        <v>173.186111124966</v>
+      </c>
+      <c r="L5">
+        <v>164.67777779095201</v>
+      </c>
+      <c r="M5">
+        <v>170.70277779143399</v>
+      </c>
+      <c r="N5">
+        <v>167.90277779121001</v>
+      </c>
+      <c r="O5">
+        <v>179.80555556994</v>
+      </c>
+      <c r="P5">
+        <v>169.81111112469603</v>
+      </c>
+      <c r="Q5">
+        <v>176.886111125262</v>
+      </c>
+      <c r="R5">
+        <v>168.49722223570203</v>
       </c>
       <c r="S5" s="1"/>
     </row>
     <row r="6" spans="1:19">
-      <c r="A6" s="1">
-        <v>566.28</v>
-      </c>
-      <c r="B6" s="1">
-        <v>572.1</v>
-      </c>
-      <c r="C6" s="1">
-        <v>552.37</v>
-      </c>
-      <c r="D6" s="1">
-        <v>523.33000000000004</v>
-      </c>
-      <c r="E6" s="1">
-        <v>561.32000000000005</v>
-      </c>
-      <c r="F6" s="1">
-        <v>565.22</v>
-      </c>
-      <c r="G6" s="1">
-        <v>531.88</v>
-      </c>
-      <c r="H6" s="1">
-        <v>583</v>
-      </c>
-      <c r="I6" s="1">
-        <v>568.04999999999995</v>
-      </c>
-      <c r="J6" s="1">
-        <v>579.51</v>
-      </c>
-      <c r="K6" s="1">
-        <v>540.92999999999995</v>
-      </c>
-      <c r="L6" s="1">
-        <v>577.5</v>
-      </c>
-      <c r="M6" s="1">
-        <v>571.16</v>
-      </c>
-      <c r="N6" s="1">
-        <v>547.02</v>
-      </c>
-      <c r="O6" s="1">
-        <v>579.96</v>
-      </c>
-      <c r="P6" s="1">
-        <v>564.12</v>
-      </c>
-      <c r="Q6" s="1">
-        <v>598.28</v>
-      </c>
-      <c r="R6" s="1">
-        <v>371.49</v>
+      <c r="A6">
+        <v>208.52500001668201</v>
+      </c>
+      <c r="B6">
+        <v>194.20555557109202</v>
+      </c>
+      <c r="C6">
+        <v>190.813888904154</v>
+      </c>
+      <c r="D6">
+        <v>212.391666683658</v>
+      </c>
+      <c r="E6">
+        <v>205.21666668308401</v>
+      </c>
+      <c r="F6">
+        <v>200.66388890494201</v>
+      </c>
+      <c r="G6">
+        <v>203.12500001625</v>
+      </c>
+      <c r="H6">
+        <v>215.96111112838801</v>
+      </c>
+      <c r="I6">
+        <v>220.85833335100202</v>
+      </c>
+      <c r="J6">
+        <v>213.97777779489601</v>
+      </c>
+      <c r="K6">
+        <v>216.93055557291004</v>
+      </c>
+      <c r="L6">
+        <v>209.36111112786003</v>
+      </c>
+      <c r="M6">
+        <v>215.23611112833001</v>
+      </c>
+      <c r="N6">
+        <v>201.95555557171201</v>
+      </c>
+      <c r="O6">
+        <v>214.02500001712201</v>
+      </c>
+      <c r="P6">
+        <v>221.14444446213602</v>
+      </c>
+      <c r="Q6">
+        <v>208.955555572272</v>
+      </c>
+      <c r="R6">
+        <v>196.92500001575399</v>
       </c>
       <c r="S6" s="1"/>
     </row>
     <row r="7" spans="1:19">
-      <c r="A7" s="1">
-        <v>507.99</v>
-      </c>
-      <c r="B7" s="1">
-        <v>545.15</v>
-      </c>
-      <c r="C7" s="1">
-        <v>504.91</v>
-      </c>
-      <c r="D7" s="1">
-        <v>472.22</v>
-      </c>
-      <c r="E7" s="1">
-        <v>520.95000000000005</v>
-      </c>
-      <c r="F7" s="1">
-        <v>532.83000000000004</v>
-      </c>
-      <c r="G7" s="1">
-        <v>488.98</v>
-      </c>
-      <c r="H7" s="1">
-        <v>523.23</v>
-      </c>
-      <c r="I7" s="1">
-        <v>507.46</v>
-      </c>
-      <c r="J7" s="1">
-        <v>525.20000000000005</v>
-      </c>
-      <c r="K7" s="1">
-        <v>487.75</v>
-      </c>
-      <c r="L7" s="1">
-        <v>524.38</v>
-      </c>
-      <c r="M7" s="1">
-        <v>508.39</v>
-      </c>
-      <c r="N7" s="1">
-        <v>481.87</v>
-      </c>
-      <c r="O7" s="1">
-        <v>501.86</v>
-      </c>
-      <c r="P7" s="1">
-        <v>503.3</v>
-      </c>
-      <c r="Q7" s="1">
-        <v>531.66999999999996</v>
-      </c>
-      <c r="R7" s="1">
-        <v>329.6</v>
+      <c r="A7">
+        <v>148.23888890074801</v>
+      </c>
+      <c r="B7">
+        <v>136.552777788702</v>
+      </c>
+      <c r="C7">
+        <v>144.89722223381401</v>
+      </c>
+      <c r="D7">
+        <v>122.386111120902</v>
+      </c>
+      <c r="E7">
+        <v>132.20833334391</v>
+      </c>
+      <c r="F7">
+        <v>145.51111112275203</v>
+      </c>
+      <c r="G7">
+        <v>129.34166667701402</v>
+      </c>
+      <c r="H7">
+        <v>137.419444455438</v>
+      </c>
+      <c r="I7">
+        <v>154.46111112346799</v>
+      </c>
+      <c r="J7">
+        <v>157.30833334591799</v>
+      </c>
+      <c r="K7">
+        <v>166.62222223555202</v>
+      </c>
+      <c r="L7">
+        <v>167.48888890228801</v>
+      </c>
+      <c r="M7">
+        <v>167.608333346742</v>
+      </c>
+      <c r="N7">
+        <v>147.30277778956199</v>
+      </c>
+      <c r="O7">
+        <v>158.536111123794</v>
+      </c>
+      <c r="P7">
+        <v>154.01388890121001</v>
+      </c>
+      <c r="Q7">
+        <v>157.04722223478601</v>
+      </c>
+      <c r="R7">
+        <v>133.35833334400201</v>
       </c>
       <c r="S7" s="1"/>
     </row>
     <row r="8" spans="1:19">
-      <c r="A8" s="1">
-        <v>418.03</v>
-      </c>
-      <c r="B8" s="1">
-        <v>461.83</v>
-      </c>
-      <c r="C8" s="1">
-        <v>444.63</v>
-      </c>
-      <c r="D8" s="1">
-        <v>368.12</v>
-      </c>
-      <c r="E8" s="1">
-        <v>443.77</v>
-      </c>
-      <c r="F8" s="1">
-        <v>456.5</v>
-      </c>
-      <c r="G8" s="1">
-        <v>422.78</v>
-      </c>
-      <c r="H8" s="1">
-        <v>456.97</v>
-      </c>
-      <c r="I8" s="1">
-        <v>444.08</v>
-      </c>
-      <c r="J8" s="1">
-        <v>471.76</v>
-      </c>
-      <c r="K8" s="1">
-        <v>419.09</v>
-      </c>
-      <c r="L8" s="1">
-        <v>481.47</v>
-      </c>
-      <c r="M8" s="1">
-        <v>456.8</v>
-      </c>
-      <c r="N8" s="1">
-        <v>417.2</v>
-      </c>
-      <c r="O8" s="1">
-        <v>456.1</v>
-      </c>
-      <c r="P8" s="1">
-        <v>469.24</v>
-      </c>
-      <c r="Q8" s="1">
-        <v>506.37</v>
-      </c>
-      <c r="R8" s="1">
-        <v>293.41000000000003</v>
+      <c r="A8">
+        <v>156.53888890141201</v>
+      </c>
+      <c r="B8">
+        <v>155.45555556799201</v>
+      </c>
+      <c r="C8">
+        <v>139.38055556670599</v>
+      </c>
+      <c r="D8">
+        <v>141.33055556686202</v>
+      </c>
+      <c r="E8">
+        <v>169.67500001357402</v>
+      </c>
+      <c r="F8">
+        <v>152.20833334551003</v>
+      </c>
+      <c r="G8">
+        <v>150.905555567628</v>
+      </c>
+      <c r="H8">
+        <v>161.96666667962401</v>
+      </c>
+      <c r="I8">
+        <v>160.99722223510202</v>
+      </c>
+      <c r="J8">
+        <v>150.616666678716</v>
+      </c>
+      <c r="K8">
+        <v>149.90555556754799</v>
+      </c>
+      <c r="L8">
+        <v>142.408333344726</v>
+      </c>
+      <c r="M8">
+        <v>158.22222223488001</v>
+      </c>
+      <c r="N8">
+        <v>141.705555566892</v>
+      </c>
+      <c r="O8">
+        <v>153.35277779004602</v>
+      </c>
+      <c r="P8">
+        <v>172.80833334715803</v>
+      </c>
+      <c r="Q8">
+        <v>164.42777779093203</v>
+      </c>
+      <c r="R8">
+        <v>140.95833334461</v>
       </c>
       <c r="S8" s="1"/>
     </row>
     <row r="9" spans="1:19">
-      <c r="A9" s="1">
-        <v>374.16</v>
-      </c>
-      <c r="B9" s="1">
-        <v>468.23</v>
-      </c>
-      <c r="C9" s="1">
-        <v>419.27</v>
-      </c>
-      <c r="D9" s="1">
-        <v>396.34</v>
-      </c>
-      <c r="E9" s="1">
-        <v>454.02</v>
-      </c>
-      <c r="F9" s="1">
-        <v>460.92</v>
-      </c>
-      <c r="G9" s="1">
-        <v>437.12</v>
-      </c>
-      <c r="H9" s="1">
-        <v>476.67</v>
-      </c>
-      <c r="I9" s="1">
-        <v>447.52</v>
-      </c>
-      <c r="J9" s="1">
-        <v>477.25</v>
-      </c>
-      <c r="K9" s="1">
-        <v>413.02</v>
-      </c>
-      <c r="L9" s="1">
-        <v>465.87</v>
-      </c>
-      <c r="M9" s="1">
-        <v>438.33</v>
-      </c>
-      <c r="N9" s="1">
-        <v>431.65</v>
-      </c>
-      <c r="O9" s="1">
-        <v>462.36</v>
-      </c>
-      <c r="P9" s="1">
-        <v>487.1</v>
-      </c>
-      <c r="Q9" s="1">
-        <v>537.84</v>
-      </c>
-      <c r="R9" s="1">
-        <v>339.16</v>
+      <c r="A9">
+        <v>118.98333334285199</v>
+      </c>
+      <c r="B9">
+        <v>118.497222231702</v>
+      </c>
+      <c r="C9">
+        <v>114.61111112028001</v>
+      </c>
+      <c r="D9">
+        <v>111.89166667561801</v>
+      </c>
+      <c r="E9">
+        <v>128.230555565814</v>
+      </c>
+      <c r="F9">
+        <v>113.03888889793201</v>
+      </c>
+      <c r="G9">
+        <v>114.89444445363601</v>
+      </c>
+      <c r="H9">
+        <v>121.813888898634</v>
+      </c>
+      <c r="I9">
+        <v>120.19166667628201</v>
+      </c>
+      <c r="J9">
+        <v>117.83888889831601</v>
+      </c>
+      <c r="K9">
+        <v>125.06388889889401</v>
+      </c>
+      <c r="L9">
+        <v>123.105555565404</v>
+      </c>
+      <c r="M9">
+        <v>124.938888898884</v>
+      </c>
+      <c r="N9">
+        <v>116.73333334267201</v>
+      </c>
+      <c r="O9">
+        <v>126.19444445454</v>
+      </c>
+      <c r="P9">
+        <v>145.66388890054199</v>
+      </c>
+      <c r="Q9">
+        <v>143.06944445588999</v>
+      </c>
+      <c r="R9">
+        <v>126.01666667674802</v>
       </c>
       <c r="S9" s="1"/>
     </row>
     <row r="10" spans="1:19">
-      <c r="A10" s="1">
-        <v>353.98</v>
-      </c>
-      <c r="B10" s="1">
-        <v>415.82</v>
-      </c>
-      <c r="C10" s="1">
-        <v>383.79</v>
-      </c>
-      <c r="D10" s="1">
-        <v>378.36</v>
-      </c>
-      <c r="E10" s="1">
-        <v>427.03</v>
-      </c>
-      <c r="F10" s="1">
-        <v>422.57</v>
-      </c>
-      <c r="G10" s="1">
-        <v>396.58</v>
-      </c>
-      <c r="H10" s="1">
-        <v>431.94</v>
-      </c>
-      <c r="I10" s="1">
-        <v>407.13</v>
-      </c>
-      <c r="J10" s="1">
-        <v>426.42</v>
-      </c>
-      <c r="K10" s="1">
-        <v>387.92</v>
-      </c>
-      <c r="L10" s="1">
-        <v>394.26</v>
-      </c>
-      <c r="M10" s="1">
-        <v>390.12</v>
-      </c>
-      <c r="N10" s="1">
-        <v>400.52</v>
-      </c>
-      <c r="O10" s="1">
-        <v>425.78</v>
-      </c>
-      <c r="P10" s="1">
-        <v>402.88</v>
-      </c>
-      <c r="Q10" s="1">
-        <v>455.61</v>
-      </c>
-      <c r="R10" s="1">
-        <v>292.77999999999997</v>
+      <c r="A10">
+        <v>127.30277778796201</v>
+      </c>
+      <c r="B10">
+        <v>127.211111121288</v>
+      </c>
+      <c r="C10">
+        <v>136.35555556646401</v>
+      </c>
+      <c r="D10">
+        <v>137.83888889991601</v>
+      </c>
+      <c r="E10">
+        <v>137.383333344324</v>
+      </c>
+      <c r="F10">
+        <v>134.44166667742201</v>
+      </c>
+      <c r="G10">
+        <v>130.64444445489602</v>
+      </c>
+      <c r="H10">
+        <v>134.85555556634401</v>
+      </c>
+      <c r="I10">
+        <v>142.30277778916201</v>
+      </c>
+      <c r="J10">
+        <v>137.577777788784</v>
+      </c>
+      <c r="K10">
+        <v>129.80277778816202</v>
+      </c>
+      <c r="L10">
+        <v>106.86944445299402</v>
+      </c>
+      <c r="M10">
+        <v>125.90555556562801</v>
+      </c>
+      <c r="N10">
+        <v>129.950000010396</v>
+      </c>
+      <c r="O10">
+        <v>134.21111112184801</v>
+      </c>
+      <c r="P10">
+        <v>120.841666676334</v>
+      </c>
+      <c r="Q10">
+        <v>130.34166667709403</v>
+      </c>
+      <c r="R10">
+        <v>108.230555564214</v>
       </c>
       <c r="S10" s="1"/>
     </row>
     <row r="11" spans="1:19">
-      <c r="A11" s="1">
-        <v>353.31</v>
-      </c>
-      <c r="B11" s="1">
-        <v>348.1</v>
-      </c>
-      <c r="C11" s="1">
-        <v>358.92</v>
-      </c>
-      <c r="D11" s="1">
-        <v>341.29</v>
-      </c>
-      <c r="E11" s="1">
-        <v>380.66</v>
-      </c>
-      <c r="F11" s="1">
-        <v>373.27</v>
-      </c>
-      <c r="G11" s="1">
-        <v>361.88</v>
-      </c>
-      <c r="H11" s="1">
-        <v>381.19</v>
-      </c>
-      <c r="I11" s="1">
-        <v>369.36</v>
-      </c>
-      <c r="J11" s="1">
-        <v>387.71</v>
-      </c>
-      <c r="K11" s="1">
-        <v>379.13</v>
-      </c>
-      <c r="L11" s="1">
-        <v>379.31</v>
-      </c>
-      <c r="M11" s="1">
-        <v>370.41</v>
-      </c>
-      <c r="N11" s="1">
-        <v>367.16</v>
-      </c>
-      <c r="O11" s="1">
-        <v>401.83</v>
-      </c>
-      <c r="P11" s="1">
-        <v>387.41</v>
-      </c>
-      <c r="Q11" s="1">
-        <v>424.3</v>
-      </c>
-      <c r="R11" s="1">
-        <v>270.39999999999998</v>
+      <c r="A11">
+        <v>101.88888889704</v>
+      </c>
+      <c r="B11">
+        <v>98.488888896768003</v>
+      </c>
+      <c r="C11">
+        <v>99.313888896834001</v>
+      </c>
+      <c r="D11">
+        <v>116.72777778711601</v>
+      </c>
+      <c r="E11">
+        <v>119.63055556512602</v>
+      </c>
+      <c r="F11">
+        <v>107.47500000859802</v>
+      </c>
+      <c r="G11">
+        <v>113.41388889796201</v>
+      </c>
+      <c r="H11">
+        <v>115.141666675878</v>
+      </c>
+      <c r="I11">
+        <v>118.288888898352</v>
+      </c>
+      <c r="J11">
+        <v>122.84444445427201</v>
+      </c>
+      <c r="K11">
+        <v>118.386111120582</v>
+      </c>
+      <c r="L11">
+        <v>107.72500000861801</v>
+      </c>
+      <c r="M11">
+        <v>127.050000010164</v>
+      </c>
+      <c r="N11">
+        <v>124.03055556547801</v>
+      </c>
+      <c r="O11">
+        <v>127.658333343546</v>
+      </c>
+      <c r="P11">
+        <v>127.713888899106</v>
+      </c>
+      <c r="Q11">
+        <v>132.230555566134</v>
+      </c>
+      <c r="R11">
+        <v>110.488888897728</v>
       </c>
       <c r="S11" s="1"/>
     </row>
     <row r="12" spans="1:19">
-      <c r="A12" s="1">
-        <v>258.20999999999998</v>
-      </c>
-      <c r="B12" s="1">
-        <v>233.48</v>
-      </c>
-      <c r="C12" s="1">
-        <v>262.64999999999998</v>
-      </c>
-      <c r="D12" s="1">
-        <v>225.19</v>
-      </c>
-      <c r="E12" s="1">
-        <v>254.13</v>
-      </c>
-      <c r="F12" s="1">
-        <v>251.11</v>
-      </c>
-      <c r="G12" s="1">
-        <v>241.56</v>
-      </c>
-      <c r="H12" s="1">
-        <v>253.28</v>
-      </c>
-      <c r="I12" s="1">
-        <v>253.03</v>
-      </c>
-      <c r="J12" s="1">
-        <v>269.33</v>
-      </c>
-      <c r="K12" s="1">
-        <v>265.10000000000002</v>
-      </c>
-      <c r="L12" s="1">
-        <v>291.16000000000003</v>
-      </c>
-      <c r="M12" s="1">
-        <v>266.07</v>
-      </c>
-      <c r="N12" s="1">
-        <v>250.59</v>
-      </c>
-      <c r="O12" s="1">
-        <v>286.20999999999998</v>
-      </c>
-      <c r="P12" s="1">
-        <v>293.69</v>
-      </c>
-      <c r="Q12" s="1">
-        <v>291.38</v>
-      </c>
-      <c r="R12" s="1">
-        <v>185.48</v>
+      <c r="A12">
+        <v>89.17777778491201</v>
+      </c>
+      <c r="B12">
+        <v>71.838888894636</v>
+      </c>
+      <c r="C12">
+        <v>75.52777778382</v>
+      </c>
+      <c r="D12">
+        <v>82.991666673306</v>
+      </c>
+      <c r="E12">
+        <v>82.758333339954007</v>
+      </c>
+      <c r="F12">
+        <v>83.238888895548016</v>
+      </c>
+      <c r="G12">
+        <v>79.127777784108005</v>
+      </c>
+      <c r="H12">
+        <v>82.355555562144005</v>
+      </c>
+      <c r="I12">
+        <v>82.805555562180004</v>
+      </c>
+      <c r="J12">
+        <v>85.872222229092003</v>
+      </c>
+      <c r="K12">
+        <v>87.908333340366013</v>
+      </c>
+      <c r="L12">
+        <v>88.136111118162006</v>
+      </c>
+      <c r="M12">
+        <v>91.777777785119994</v>
+      </c>
+      <c r="N12">
+        <v>83.697222228918008</v>
+      </c>
+      <c r="O12">
+        <v>93.541666674150008</v>
+      </c>
+      <c r="P12">
+        <v>92.147222229594007</v>
+      </c>
+      <c r="Q12">
+        <v>89.355555562704012</v>
+      </c>
+      <c r="R12">
+        <v>79.513888895250005</v>
       </c>
       <c r="S12" s="1"/>
     </row>
     <row r="13" spans="1:19">
-      <c r="A13" s="1">
-        <v>248.96</v>
-      </c>
-      <c r="B13" s="1">
-        <v>207.88</v>
-      </c>
-      <c r="C13" s="1">
-        <v>245.58</v>
-      </c>
-      <c r="D13" s="1">
-        <v>197.6</v>
-      </c>
-      <c r="E13" s="1">
-        <v>227.71</v>
-      </c>
-      <c r="F13" s="1">
-        <v>225.43</v>
-      </c>
-      <c r="G13" s="1">
-        <v>213.94</v>
-      </c>
-      <c r="H13" s="1">
-        <v>221.54</v>
-      </c>
-      <c r="I13" s="1">
-        <v>221.15</v>
-      </c>
-      <c r="J13" s="1">
-        <v>236.97</v>
-      </c>
-      <c r="K13" s="1">
-        <v>232.3</v>
-      </c>
-      <c r="L13" s="1">
-        <v>265.42</v>
-      </c>
-      <c r="M13" s="1">
-        <v>244</v>
-      </c>
-      <c r="N13" s="1">
-        <v>211.98</v>
-      </c>
-      <c r="O13" s="1">
-        <v>240.73</v>
-      </c>
-      <c r="P13" s="1">
-        <v>266.56</v>
-      </c>
-      <c r="Q13" s="1">
-        <v>236.92</v>
-      </c>
-      <c r="R13" s="1">
-        <v>139.21</v>
+      <c r="A13">
+        <v>82.833333339960006</v>
+      </c>
+      <c r="B13">
+        <v>64.138888894019999</v>
+      </c>
+      <c r="C13">
+        <v>56.861111115660002</v>
+      </c>
+      <c r="D13">
+        <v>76.527777783900007</v>
+      </c>
+      <c r="E13">
+        <v>73.952777783694003</v>
+      </c>
+      <c r="F13">
+        <v>72.369444450233999</v>
+      </c>
+      <c r="G13">
+        <v>71.466666672383994</v>
+      </c>
+      <c r="H13">
+        <v>63.855555560664001</v>
+      </c>
+      <c r="I13">
+        <v>63.875000005110003</v>
+      </c>
+      <c r="J13">
+        <v>68.538888894372008</v>
+      </c>
+      <c r="K13">
+        <v>71.730555561294011</v>
+      </c>
+      <c r="L13">
+        <v>85.522222229063999</v>
+      </c>
+      <c r="M13">
+        <v>83.027777784419996</v>
+      </c>
+      <c r="N13">
+        <v>67.955555560991996</v>
+      </c>
+      <c r="O13">
+        <v>76.605555561684</v>
+      </c>
+      <c r="P13">
+        <v>92.333333340720003</v>
+      </c>
+      <c r="Q13">
+        <v>73.600000005887992</v>
+      </c>
+      <c r="R13">
+        <v>58.308333337998</v>
       </c>
       <c r="S13" s="1"/>
     </row>
@@ -1902,6 +1928,119 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F69A95-BEAF-4C3F-91EC-73E9D48489EA}">
+  <sheetPr>
+    <outlinePr summaryBelow="0"/>
+  </sheetPr>
+  <dimension ref="A1:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5"/>
+  <cols>
+    <col min="1" max="1" width="13.625" style="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="21.375" style="9" bestFit="1" customWidth="1"/>
+    <col min="3" max="16384" width="9" style="9"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A1" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A2" s="13">
+        <v>1420</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A3" s="12">
+        <v>19543</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A4" s="12">
+        <v>1740</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A5" s="12">
+        <v>1444</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A6" s="12">
+        <v>2349</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A7" s="12">
+        <v>8008</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A8" s="12">
+        <v>20814</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A9" s="12">
+        <v>155849</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A10" s="12">
+        <v>1127239</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" ht="18.75" customHeight="1">
+      <c r="A11" s="12">
+        <v>273700</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>47</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43143FA1-87B7-48EF-A2B7-D85AC47D04BF}">
   <dimension ref="A1:A13"/>
   <sheetViews>
@@ -1982,12 +2121,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{867717F7-A658-466E-A84D-C6B4F461EDDE}">
   <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" zoomScaleSheetLayoutView="90" workbookViewId="0">
-      <selection activeCell="E32" sqref="E32"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5"/>
@@ -2190,79 +2329,79 @@
     </row>
     <row r="4" spans="1:19">
       <c r="A4" s="6">
-        <f>A2*A3</f>
+        <f t="shared" ref="A4:S4" si="0">A2*A3</f>
         <v>1290.0999999999999</v>
       </c>
       <c r="B4" s="6">
-        <f>B2*B3</f>
+        <f t="shared" si="0"/>
         <v>2594.5499999999997</v>
       </c>
       <c r="C4" s="6">
-        <f>C2*C3</f>
+        <f t="shared" si="0"/>
         <v>5648.76</v>
       </c>
       <c r="D4" s="6">
-        <f>D2*D3</f>
+        <f t="shared" si="0"/>
         <v>1060.8800000000001</v>
       </c>
       <c r="E4" s="6">
-        <f>E2*E3</f>
+        <f t="shared" si="0"/>
         <v>1057.8999999999999</v>
       </c>
       <c r="F4" s="6">
-        <f>F2*F3</f>
+        <f t="shared" si="0"/>
         <v>1057.8999999999999</v>
       </c>
       <c r="G4" s="6">
-        <f>G2*G3</f>
+        <f t="shared" si="0"/>
         <v>745.11</v>
       </c>
       <c r="H4" s="6">
-        <f>H2*H3</f>
+        <f t="shared" si="0"/>
         <v>1598.5900000000001</v>
       </c>
       <c r="I4" s="6">
-        <f>I2*I3</f>
+        <f t="shared" si="0"/>
         <v>1088.6400000000001</v>
       </c>
       <c r="J4" s="6">
-        <f>J2*J3</f>
+        <f t="shared" si="0"/>
         <v>864</v>
       </c>
       <c r="K4" s="6">
-        <f>K2*K3</f>
+        <f t="shared" si="0"/>
         <v>1024.32</v>
       </c>
       <c r="L4" s="6">
-        <f>L2*L3</f>
+        <f t="shared" si="0"/>
         <v>567.20999999999992</v>
       </c>
       <c r="M4" s="6">
-        <f>M2*M3</f>
+        <f t="shared" si="0"/>
         <v>509.68</v>
       </c>
       <c r="N4" s="6">
-        <f>N2*N3</f>
+        <f t="shared" si="0"/>
         <v>16313.000000000002</v>
       </c>
       <c r="O4" s="6">
-        <f>O2*O3</f>
+        <f t="shared" si="0"/>
         <v>80114.58</v>
       </c>
       <c r="P4" s="6">
-        <f>P2*P3</f>
+        <f t="shared" si="0"/>
         <v>1123.2</v>
       </c>
       <c r="Q4" s="6">
-        <f>Q2*Q3</f>
+        <f t="shared" si="0"/>
         <v>1123.2</v>
       </c>
       <c r="R4" s="6">
-        <f>R2*R3</f>
+        <f t="shared" si="0"/>
         <v>103.04</v>
       </c>
       <c r="S4" s="6">
-        <f>S2*S3</f>
+        <f t="shared" si="0"/>
         <v>10687.5</v>
       </c>
     </row>
@@ -2273,7 +2412,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AAC5FC1D-2932-4599-8807-5C574A3A443A}">
   <dimension ref="A1:D2"/>
   <sheetViews>
@@ -2317,7 +2456,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C04B5247-9238-4717-B2D5-F5F20EE390B4}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2328,116 +2467,4 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41F69A95-BEAF-4C3F-91EC-73E9D48489EA}">
-  <sheetPr>
-    <outlinePr summaryBelow="0"/>
-  </sheetPr>
-  <dimension ref="A1:B11"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5"/>
-  <cols>
-    <col min="1" max="1" width="13.625" style="11" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="21.375" style="10" bestFit="1" customWidth="1"/>
-    <col min="3" max="16384" width="9" style="9"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A1" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="B1" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A2" s="14">
-        <v>1420</v>
-      </c>
-      <c r="B2" s="12" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A3" s="13">
-        <v>19543</v>
-      </c>
-      <c r="B3" s="12" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A4" s="13">
-        <v>1740</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A5" s="13">
-        <v>1444</v>
-      </c>
-      <c r="B5" s="12" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A6" s="13">
-        <v>2349</v>
-      </c>
-      <c r="B6" s="12" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A7" s="13">
-        <v>8008</v>
-      </c>
-      <c r="B7" s="12" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A8" s="13">
-        <v>20814</v>
-      </c>
-      <c r="B8" s="12" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A9" s="13">
-        <v>155849</v>
-      </c>
-      <c r="B9" s="12" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A10" s="13">
-        <v>1127239</v>
-      </c>
-      <c r="B10" s="12" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" ht="18.75" customHeight="1">
-      <c r="A11" s="13">
-        <v>273700</v>
-      </c>
-      <c r="B11" s="12" t="s">
-        <v>47</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/data/DB.xlsx
+++ b/data/DB.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Regrowthsolutio\리그로스 솔루션 업무\##연구용역\연구_09_철기연_3차원 공간정보 기반 철도역사 유형별 평가모델 구축_3차년도\05_신재생수정\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passi\KRRI_regression_streamlit-master\KRRI_regression_streamlit-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43AA0B1B-169A-421D-8419-E4A34376BA8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE603114-75C0-4173-AF64-88222FCA2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView minimized="1" xWindow="38295" yWindow="8760" windowWidth="23310" windowHeight="10035" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
+    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
   </bookViews>
   <sheets>
     <sheet name="01_sun" sheetId="1" r:id="rId1"/>
@@ -720,8 +720,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{11543455-1519-4BF0-BDE4-65314FA59D08}">
   <dimension ref="A1:S33"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F16" sqref="F16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1934,8 +1934,8 @@
   </sheetPr>
   <dimension ref="A1:B11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -2019,7 +2019,7 @@
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1">
       <c r="A10" s="12">
-        <v>1127239</v>
+        <v>237200</v>
       </c>
       <c r="B10" s="11" t="s">
         <v>48</v>
@@ -2027,7 +2027,7 @@
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1">
       <c r="A11" s="12">
-        <v>273700</v>
+        <v>237200</v>
       </c>
       <c r="B11" s="11" t="s">
         <v>47</v>

--- a/data/DB.xlsx
+++ b/data/DB.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\passi\KRRI_regression_streamlit-master\KRRI_regression_streamlit-master\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE603114-75C0-4173-AF64-88222FCA2B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44F58FCC-090A-4AC1-A9AC-76FC191BE602}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="38280" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
+    <workbookView xWindow="15810" yWindow="2580" windowWidth="28770" windowHeight="15450" activeTab="2" xr2:uid="{B9338AF7-8A02-4AF2-BD78-CE691C806B06}"/>
   </bookViews>
   <sheets>
     <sheet name="01_sun" sheetId="1" r:id="rId1"/>
@@ -198,9 +198,6 @@
     <t>태양광발전시스템설치</t>
   </si>
   <si>
-    <t>태양광</t>
-  </si>
-  <si>
     <t>지열</t>
   </si>
   <si>
@@ -226,6 +223,38 @@
   </si>
   <si>
     <t>가격</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+      </rPr>
+      <t>태양광</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>(</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Arial Unicode MS"/>
+        <family val="2"/>
+        <charset val="129"/>
+      </rPr>
+      <t>모듈당 단가)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -238,7 +267,7 @@
     <numFmt numFmtId="177" formatCode="0.00_ "/>
     <numFmt numFmtId="178" formatCode="#,##0.00_);[Red]\(#,##0.00\)"/>
   </numFmts>
-  <fonts count="7">
+  <fonts count="10">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -285,6 +314,27 @@
       <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+      <family val="2"/>
+      <charset val="129"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="129"/>
     </font>
@@ -354,7 +404,7 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -400,6 +450,9 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="3" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="4">
@@ -1935,7 +1988,7 @@
   <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G16" sqref="G16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5"/>
@@ -1947,10 +2000,10 @@
   <sheetData>
     <row r="1" spans="1:2" ht="18.75" customHeight="1">
       <c r="A1" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B1" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="18.75" customHeight="1">
@@ -1958,7 +2011,7 @@
         <v>1420</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="18.75" customHeight="1">
@@ -1966,7 +2019,7 @@
         <v>19543</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="18.75" customHeight="1">
@@ -1974,7 +2027,7 @@
         <v>1740</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="18.75" customHeight="1">
@@ -1982,7 +2035,7 @@
         <v>1444</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="18.75" customHeight="1">
@@ -1990,7 +2043,7 @@
         <v>2349</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="18.75" customHeight="1">
@@ -1998,7 +2051,7 @@
         <v>8008</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="18.75" customHeight="1">
@@ -2006,7 +2059,7 @@
         <v>20814</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="18.75" customHeight="1">
@@ -2014,15 +2067,15 @@
         <v>155849</v>
       </c>
       <c r="B9" s="11" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="18.75" customHeight="1">
       <c r="A10" s="12">
-        <v>237200</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>48</v>
+        <v>186725</v>
+      </c>
+      <c r="B10" s="16" t="s">
+        <v>57</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="18.75" customHeight="1">
